--- a/Input/urbs_intertemporal_2050/2040.xlsx
+++ b/Input/urbs_intertemporal_2050/2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B18C32-95E1-4C8A-BC58-1D795B456C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557FC5F-CFEF-40E4-BAC4-63510FE83086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -1796,16 +1796,7 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <border>
         <top style="thin">
@@ -2315,10 +2306,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2369,11 +2360,165 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="65">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{1257A183-464F-4A49-BDE5-C2DC29083EEA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{C1AE8183-D375-4C01-8BD4-08D8E818B3A1}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{1F757A50-E4F6-4DC1-BEDE-830A67ECEF8F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{0AFA5C43-3741-45BF-8A4F-5029E202AED6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{B467B202-A7BF-4704-8D73-216B98F8F6CB}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{54C08096-EBDF-4CED-A626-82D3C5CAE091}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2743,7 +2888,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2764,7 +2909,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3323,52 +3468,47 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A2:A13">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C3 E2:F3 A4:F5 A6:C6 E6:F6">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A14:XFD14 A15:F17 J15:XFD17 A18:XFD1048576">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B10 B12:B13">
-    <cfRule type="expression" dxfId="11" priority="2">
+  <conditionalFormatting sqref="B7:B13">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="7" priority="13">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3984,22 +4124,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1 A2:C23 E2:XFD23">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:XFD1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="4" priority="25">
+    <cfRule type="expression" dxfId="3" priority="25">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6 D8:D9 D12:D17 D19:D23">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
     <cfRule type="dataBar" priority="17">
@@ -4028,7 +4168,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D17">
+  <conditionalFormatting sqref="D17 D19">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4238,7 +4378,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4543,7 +4683,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input/urbs_intertemporal_2050/2040.xlsx
+++ b/Input/urbs_intertemporal_2050/2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557FC5F-CFEF-40E4-BAC4-63510FE83086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08164C3-8D56-4E3B-BD10-ED4779F633DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="796" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" tabRatio="796" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -354,13 +354,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1009,11 +1009,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0"/>
@@ -1147,11 +1147,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
@@ -1180,11 +1180,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
@@ -1213,11 +1213,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
@@ -1256,27 +1256,27 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1306,8 +1306,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
@@ -1317,7 +1317,7 @@
     <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1326,7 +1326,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1339,7 +1339,7 @@
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1367,7 +1367,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1400,7 +1400,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1409,7 +1409,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1427,7 +1427,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2250,13 +2250,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="32"/>
+    <col min="1" max="1" width="14.109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2308,14 +2308,14 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1">
@@ -2536,10 +2536,10 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
@@ -2570,7 +2570,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2602,9 +2602,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2643,15 +2643,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2913,23 +2913,23 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="24" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="20" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="3"/>
+    <col min="8" max="8" width="10.6640625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3541,15 +3541,15 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4168,7 +4168,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D19">
+  <conditionalFormatting sqref="D19 D17">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4312,20 +4312,20 @@
       <selection activeCell="A7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="23" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="23" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4411,27 +4411,27 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.140625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="23" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="3" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="3"/>
+    <col min="13" max="13" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4722,13 +4722,13 @@
       <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4784,18 +4784,18 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4819,7 +4819,95 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5421000000</v>
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>451750000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>451750000</v>
       </c>
     </row>
   </sheetData>

--- a/Input/urbs_intertemporal_2050/2040.xlsx
+++ b/Input/urbs_intertemporal_2050/2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08164C3-8D56-4E3B-BD10-ED4779F633DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC11206-E7D4-4D91-ACAA-A041D9ADF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" tabRatio="796" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>Gas Plant (CCGT) CCUS</t>
+  </si>
+  <si>
+    <t>Piped Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG </t>
+  </si>
+  <si>
+    <t>Gas Plant (CCGT) LNG</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1805,79 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -2637,10 +2718,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2777,7 +2858,7 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>8.64</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
@@ -2791,13 +2872,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D7">
-        <v>1.583</v>
+        <v>20.52</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>24</v>
@@ -2816,7 +2897,7 @@
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8">
         <v>147</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -2837,7 +2918,7 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>64.8</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>24</v>
@@ -2857,7 +2938,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0.47199999999999998</v>
+        <v>6.12</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>24</v>
@@ -2877,7 +2958,7 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.44</v>
+        <v>6.48</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>24</v>
@@ -2886,16 +2967,36 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>36.54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B11">
-    <cfRule type="expression" dxfId="15" priority="1">
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="307" yWindow="342" count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use per hour" prompt="For stock commodities, this value limits the energy use per hour (MW)._x000a_" sqref="F1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use" prompt="For stock commodities, this value limits annual use (MWh) of this commodity. For CO2, this value limits the amount of emissions (t_CO2). If simulation timespan does not cover a full year, the sums are multiplied accordingly before (cf. 'weight' in urbs)." sqref="E1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commodity price (€/MWh)" prompt="Cost for purchasing one unit (MWh) of a stock or buy commodity. Revenue for selling one unit (MWh) of a sell commodity. Cost for creating one unit of environmental commodity._x000a__x000a_Multiplier for sheet &quot;Buy-Sell-Price&quot; for commodity types &quot;Buy&quot; and &quot;Sell&quot;._x000a_" sqref="D1" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use per hour" prompt="For stock commodities, this value limits the energy use per hour (MW)._x000a_" sqref="F1" xr:uid="{BD7D29D4-B7B6-4AA6-9F21-C9B837F5FDC1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use" prompt="For stock commodities, this value limits annual use (MWh) of this commodity. For CO2, this value limits the amount of emissions (t_CO2). If simulation timespan does not cover a full year, the sums are multiplied accordingly before (cf. 'weight' in urbs)." sqref="E1" xr:uid="{AE4C1288-99B6-4C6B-B375-F9B14CF2880D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commodity price (€/MWh)" prompt="Cost for purchasing one unit (MWh) of a stock or buy commodity. Revenue for selling one unit (MWh) of a sell commodity. Cost for creating one unit of environmental commodity._x000a__x000a_Multiplier for sheet &quot;Buy-Sell-Price&quot; for commodity types &quot;Buy&quot; and &quot;Sell&quot;._x000a_" sqref="D1" xr:uid="{9318D62B-E4C4-4A65-8D5F-8CF4B593DEB4}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2907,10 +3008,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3465,50 +3566,111 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="67">
+        <v>999999</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="52">
+        <v>735908.18400000012</v>
+      </c>
+      <c r="H14" s="52">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I14" s="61">
+        <v>2.6</v>
+      </c>
+      <c r="J14" s="56">
+        <v>0</v>
+      </c>
+      <c r="K14" s="60">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L14" s="53">
+        <v>25</v>
+      </c>
+      <c r="M14" s="28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A2:A13">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C3 E2:F3 A4:F5 A6:C6 E6:F6">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A14:XFD14 A15:F17 J15:XFD17 A18:XFD1048576">
-    <cfRule type="expression" dxfId="12" priority="16">
+  <conditionalFormatting sqref="A1:XFD1 A15:F17 J15:XFD17 A18:XFD1048576">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B13">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:XFD14">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3535,10 +3697,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E35" sqref="A33:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -4122,27 +4284,80 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="64">
+        <v>0.62</v>
+      </c>
+      <c r="E34" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="48">
+        <v>0.125</v>
+      </c>
+      <c r="E35" s="24">
+        <f>D35*E33</f>
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1 A2:C23 E2:XFD23">
-    <cfRule type="expression" dxfId="5" priority="18">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:XFD1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A24:XFD32 A36:XFD1048576 F33:XFD35">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="3" priority="25">
+    <cfRule type="expression" dxfId="11" priority="30">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6 D8:D9 D12:D17 D19:D23">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4151,7 +4366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6 D9 D12:D14">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4160,7 +4375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4168,8 +4383,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D17">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="D17 D19">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4178,7 +4393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4187,7 +4402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4196,7 +4411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D23">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4205,7 +4420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4214,14 +4429,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4229,8 +4444,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E1048576">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="D36:E1048576">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -4239,6 +4454,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E14">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E16">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E19">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4247,49 +4507,47 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E14">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 E34:E35">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{08A3674D-09CE-495B-91BD-FDAD0D78DB89}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E16">
-    <cfRule type="dataBar" priority="26">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77CFC0B9-FF76-4022-AE69-AD8E3931BB86}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E19">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -4298,6 +4556,42 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{08A3674D-09CE-495B-91BD-FDAD0D78DB89}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77CFC0B9-FF76-4022-AE69-AD8E3931BB86}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4378,7 +4672,7 @@
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4683,7 +4977,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4786,7 +5080,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B14"/>
     </sheetView>
   </sheetViews>

--- a/Input/urbs_intertemporal_2050/2040.xlsx
+++ b/Input/urbs_intertemporal_2050/2040.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC11206-E7D4-4D91-ACAA-A041D9ADF919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507A776-2E36-455C-BDE6-D92A8C652FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" tabRatio="796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Gas</t>
   </si>
   <si>
     <t>CO2</t>
@@ -1805,52 +1802,7 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <border>
         <top style="thin">
@@ -2401,16 +2353,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="15" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2625,13 +2577,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2655,13 +2607,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2872,7 +2824,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
@@ -2892,10 +2844,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D8">
         <v>147</v>
@@ -2912,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>23</v>
@@ -2932,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -2952,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>23</v>
@@ -2972,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>23</v>
@@ -2989,7 +2941,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3010,7 +2962,7 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -3038,40 +2990,40 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3079,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
@@ -3120,7 +3072,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
@@ -3161,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
@@ -3202,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
@@ -3243,7 +3195,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -3284,7 +3236,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
@@ -3325,7 +3277,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
@@ -3366,7 +3318,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
@@ -3407,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
@@ -3448,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -3489,7 +3441,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
@@ -3530,7 +3482,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="20">
         <v>0</v>
@@ -3571,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="20">
         <v>0</v>
@@ -3609,68 +3561,53 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="A2:A13">
-    <cfRule type="expression" dxfId="22" priority="9">
+  <conditionalFormatting sqref="A2:A14">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C3 E2:F3 A4:F5 A6:C6 E6:F6">
-    <cfRule type="expression" dxfId="21" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1 A15:F17 J15:XFD17 A18:XFD1048576">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B13">
-    <cfRule type="expression" dxfId="18" priority="5">
+  <conditionalFormatting sqref="B7:B14">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13">
-    <cfRule type="expression" dxfId="17" priority="12">
+  <conditionalFormatting sqref="C2:C14">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:XFD14">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:XFD14">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3699,8 +3636,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="A33:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3716,30 +3653,30 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="24">
         <v>1</v>
@@ -3751,13 +3688,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -3769,13 +3706,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="24">
         <v>1</v>
@@ -3787,13 +3724,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="24">
         <v>1</v>
@@ -3805,13 +3742,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="24">
         <v>1</v>
@@ -3822,13 +3759,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="64">
         <v>0.43</v>
@@ -3840,13 +3777,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="24">
         <v>0.36299999999999999</v>
@@ -3857,13 +3794,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="24">
         <v>1</v>
@@ -3874,13 +3811,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="64">
         <v>0.62</v>
@@ -3892,13 +3829,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="48">
         <v>0.125</v>
@@ -3910,13 +3847,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="24">
         <v>1</v>
@@ -3928,13 +3865,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="24">
         <v>0.35</v>
@@ -3946,13 +3883,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="24">
         <v>0</v>
@@ -3964,13 +3901,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="24">
         <v>1</v>
@@ -3982,13 +3919,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="24">
         <v>0.38</v>
@@ -4000,13 +3937,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
@@ -4017,13 +3954,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="64">
         <v>0.47</v>
@@ -4035,13 +3972,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="24">
         <v>0.34179999999999999</v>
@@ -4053,13 +3990,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -4071,13 +4008,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="24">
         <v>1</v>
@@ -4089,13 +4026,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="24">
         <v>1</v>
@@ -4107,13 +4044,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
@@ -4125,13 +4062,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="24">
         <v>1</v>
@@ -4143,13 +4080,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="24">
         <v>0.38</v>
@@ -4161,13 +4098,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="24">
         <v>3.4180000000000002E-2</v>
@@ -4179,13 +4116,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="24">
         <v>1</v>
@@ -4197,13 +4134,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="24">
         <v>0.34</v>
@@ -4215,13 +4152,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="24">
         <v>3.6299999999999999E-2</v>
@@ -4233,13 +4170,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="24">
         <v>1</v>
@@ -4250,13 +4187,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="24">
         <v>0.49</v>
@@ -4268,13 +4205,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="24">
         <v>1.2500000000000001E-2</v>
@@ -4286,13 +4223,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="24">
         <v>1</v>
@@ -4303,13 +4240,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="64">
         <v>0.62</v>
@@ -4321,13 +4258,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="48">
         <v>0.125</v>
@@ -4338,23 +4275,33 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD1 A2:C23 E2:XFD23">
-    <cfRule type="expression" dxfId="13" priority="23">
+  <conditionalFormatting sqref="A34:C35 E34:E35">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:XFD32 A36:XFD1048576 F33:XFD35">
-    <cfRule type="expression" dxfId="12" priority="6">
+  <conditionalFormatting sqref="A33:E33">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1 A2:C8 E2:XFD23 A10:C23 A9 C9">
+    <cfRule type="expression" dxfId="5" priority="23">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:XFD29 F33:XFD35 A36:XFD1048576 A31:XFD32 A30 C30:XFD30">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="11" priority="30">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6 D8:D9 D12:D17 D19:D23">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
     <cfRule type="dataBar" priority="22">
@@ -4383,7 +4330,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 D19">
+  <conditionalFormatting sqref="D19 D17">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4419,6 +4366,20 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77CFC0B9-FF76-4022-AE69-AD8E3931BB86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1">
     <cfRule type="dataBar" priority="45">
       <dataBar>
@@ -4442,6 +4403,20 @@
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 E34:E35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{08A3674D-09CE-495B-91BD-FDAD0D78DB89}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:E1048576">
@@ -4507,49 +4482,6 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E33 E34:E35">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08A3674D-09CE-495B-91BD-FDAD0D78DB89}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77CFC0B9-FF76-4022-AE69-AD8E3931BB86}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ratio at minimum operation point" prompt="Input/Output ratio at point of minimum operation (min-fract in 'Process' sheet)._x000a__x000a_All values have to be larger/equal to ratio!" sqref="E1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Ratio (1)" prompt="Input/output quantities, relative to process throughput" sqref="D1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
@@ -4559,6 +4491,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77CFC0B9-FF76-4022-AE69-AD8E3931BB86}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08A3674D-09CE-495B-91BD-FDAD0D78DB89}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -4573,21 +4520,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D33:E33 E34:E35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77CFC0B9-FF76-4022-AE69-AD8E3931BB86}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4624,55 +4556,55 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4733,61 +4665,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="36" t="s">
         <v>78</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4795,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>20</v>
@@ -4855,7 +4787,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>20</v>
@@ -4916,7 +4848,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>20</v>
@@ -4977,7 +4909,7 @@
   </sheetData>
   <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5034,19 +4966,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5094,10 +5026,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Input/urbs_intertemporal_2050/2040.xlsx
+++ b/Input/urbs_intertemporal_2050/2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507A776-2E36-455C-BDE6-D92A8C652FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BD064-AA44-4247-ADD5-25D82E2D36BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" tabRatio="796" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -100,15 +100,9 @@
     <t>maxperhour</t>
   </si>
   <si>
-    <t>WindOff</t>
-  </si>
-  <si>
     <t>SupIm</t>
   </si>
   <si>
-    <t>WindOn</t>
-  </si>
-  <si>
     <t>Hydro</t>
   </si>
   <si>
@@ -178,12 +172,6 @@
     <t>area-per-cap</t>
   </si>
   <si>
-    <t>Wind (onshore)</t>
-  </si>
-  <si>
-    <t>Wind (offshore)</t>
-  </si>
-  <si>
     <t>Hydro (run-of-river)</t>
   </si>
   <si>
@@ -314,12 +302,6 @@
   </si>
   <si>
     <t>EU27.Elec</t>
-  </si>
-  <si>
-    <t>EU27.WindOff</t>
-  </si>
-  <si>
-    <t>EU27.WindOn</t>
   </si>
   <si>
     <t>EU27.Hydro</t>
@@ -1802,43 +1784,7 @@
     <cellStyle name="Zelle überprüfen 4" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Zelle überprüfen 5" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <border>
         <top style="thin">
@@ -2339,10 +2285,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2351,208 +2297,119 @@
     <col min="2" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="15" customFormat="1">
+    <row r="1" spans="1:2" s="15" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="27">
         <v>0</v>
       </c>
-      <c r="C2" s="27">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="65">
+      <c r="B3" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="65">
+      <c r="B4" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="65">
+      <c r="B5" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="65">
+      <c r="B6" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="65">
+      <c r="B7" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="65">
+      <c r="B8" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="65">
+      <c r="B9" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="65">
+      <c r="B10" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="65">
+      <c r="B11" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="65">
+      <c r="B12" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="65">
+      <c r="B13" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="65">
+      <c r="B14" s="65">
         <v>0.20699999999999999</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{0AFA5C43-3741-45BF-8A4F-5029E202AED6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{B467B202-A7BF-4704-8D73-216B98F8F6CB}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{54C08096-EBDF-4CED-A626-82D3C5CAE091}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2577,13 +2434,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2607,13 +2464,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2670,10 +2527,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="B2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2712,10 +2569,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="28" t="e">
         <f>NA()</f>
@@ -2738,7 +2595,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="28" t="e">
         <f>NA()</f>
@@ -2758,22 +2615,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>8.64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2781,22 +2635,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="28" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="D5">
+        <v>20.52</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2804,19 +2655,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>147</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>8.64</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>24</v>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2824,19 +2675,19 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>20.52</v>
+        <v>64.8</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2844,19 +2695,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>6.12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2867,16 +2718,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>64.8</v>
+        <v>6.48</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2884,64 +2735,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>6.12</v>
+        <v>36.54</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>6.48</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>36.54</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="18" priority="1">
+  <conditionalFormatting sqref="B8:B10">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2960,10 +2771,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2990,40 +2801,40 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3031,25 +2842,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="20">
         <v>0</v>
       </c>
-      <c r="D2" s="41">
-        <v>629877</v>
+      <c r="D2" s="54">
+        <v>46710</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="51">
         <v>0</v>
       </c>
       <c r="G2" s="52">
-        <v>1019390.2128</v>
+        <v>2620279.14</v>
       </c>
       <c r="H2" s="52">
-        <v>12074.53816</v>
+        <v>9143.1016799999998</v>
       </c>
       <c r="I2" s="59">
         <v>0</v>
@@ -3061,7 +2872,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L2" s="53">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M2" s="28" t="e">
         <v>#N/A</v>
@@ -3072,28 +2883,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="20">
         <v>0</v>
       </c>
-      <c r="D3" s="41">
-        <v>458034</v>
+      <c r="D3" s="54">
+        <v>59840</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="51">
         <v>0</v>
       </c>
-      <c r="G3" s="52">
-        <v>1913760.8711999999</v>
-      </c>
-      <c r="H3" s="52">
-        <v>35048.216959999998</v>
-      </c>
-      <c r="I3" s="59">
-        <v>0</v>
+      <c r="G3" s="53">
+        <v>3345037.2</v>
+      </c>
+      <c r="H3" s="53">
+        <v>28432.799999999999</v>
+      </c>
+      <c r="I3" s="61">
+        <v>0.35699999999999998</v>
       </c>
       <c r="J3" s="53">
         <v>0</v>
@@ -3102,7 +2913,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L3" s="53">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M3" s="28" t="e">
         <v>#N/A</v>
@@ -3113,28 +2924,28 @@
         <v>9</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="20">
         <v>0</v>
       </c>
-      <c r="D4" s="54">
-        <v>46710</v>
+      <c r="D4" s="67">
+        <v>999999</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="51">
-        <v>0</v>
-      </c>
-      <c r="G4" s="52">
-        <v>2620279.14</v>
-      </c>
-      <c r="H4" s="52">
-        <v>9143.1016799999998</v>
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="56">
+        <v>1784013.3448000001</v>
+      </c>
+      <c r="H4" s="57">
+        <v>28544.213516799999</v>
       </c>
       <c r="I4" s="59">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J4" s="53">
         <v>0</v>
@@ -3143,7 +2954,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L4" s="53">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M4" s="28" t="e">
         <v>#N/A</v>
@@ -3154,28 +2965,28 @@
         <v>9</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="20">
         <v>0</v>
       </c>
-      <c r="D5" s="54">
-        <v>59840</v>
+      <c r="D5" s="67">
+        <v>999999</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="51">
-        <v>0</v>
-      </c>
-      <c r="G5" s="53">
-        <v>3345037.2</v>
-      </c>
-      <c r="H5" s="53">
-        <v>28432.799999999999</v>
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="52">
+        <v>2230016.6809999999</v>
+      </c>
+      <c r="H5" s="52">
+        <v>43931.328608800002</v>
       </c>
       <c r="I5" s="61">
-        <v>0.35699999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="J5" s="53">
         <v>0</v>
@@ -3184,7 +2995,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L5" s="53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M5" s="28" t="e">
         <v>#N/A</v>
@@ -3195,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
@@ -3204,28 +3015,28 @@
         <v>999999</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="56">
-        <v>1784013.3448000001</v>
-      </c>
-      <c r="H6" s="57">
-        <v>28544.213516799999</v>
-      </c>
-      <c r="I6" s="59">
-        <v>2.7</v>
-      </c>
-      <c r="J6" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="52">
+        <v>735908.18400000012</v>
+      </c>
+      <c r="H6" s="52">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I6" s="61">
+        <v>2.6</v>
+      </c>
+      <c r="J6" s="56">
         <v>0</v>
       </c>
       <c r="K6" s="60">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L6" s="53">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M6" s="28" t="e">
         <v>#N/A</v>
@@ -3236,28 +3047,28 @@
         <v>9</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
       </c>
-      <c r="D7" s="67">
-        <v>999999</v>
+      <c r="D7" s="55">
+        <v>94200</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="51">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G7" s="52">
-        <v>2230016.6809999999</v>
-      </c>
-      <c r="H7" s="52">
-        <v>43931.328608800002</v>
-      </c>
-      <c r="I7" s="61">
-        <v>3.2</v>
+        <v>5296308.9000000004</v>
+      </c>
+      <c r="H7" s="57">
+        <v>120421.3392</v>
+      </c>
+      <c r="I7" s="59">
+        <v>8.5</v>
       </c>
       <c r="J7" s="53">
         <v>0</v>
@@ -3266,7 +3077,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L7" s="53">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M7" s="28" t="e">
         <v>#N/A</v>
@@ -3277,30 +3088,30 @@
         <v>9</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="D8" s="67">
-        <v>999999</v>
+      <c r="D8" s="20">
+        <v>999999999999</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="52">
-        <v>735908.18400000012</v>
-      </c>
-      <c r="H8" s="52">
-        <v>16725.186000000002</v>
-      </c>
-      <c r="I8" s="61">
-        <v>2.6</v>
-      </c>
-      <c r="J8" s="56">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58">
+        <v>5648000</v>
+      </c>
+      <c r="H8" s="58">
+        <v>0</v>
+      </c>
+      <c r="I8" s="62">
+        <v>53.2</v>
+      </c>
+      <c r="J8" s="53">
         <v>0</v>
       </c>
       <c r="K8" s="60">
@@ -3318,37 +3129,37 @@
         <v>9</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
       </c>
       <c r="D9" s="55">
-        <v>94200</v>
+        <v>0</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="51">
-        <v>0</v>
-      </c>
-      <c r="G9" s="52">
-        <v>5296308.9000000004</v>
-      </c>
-      <c r="H9" s="57">
-        <v>120421.3392</v>
-      </c>
-      <c r="I9" s="59">
-        <v>8.5</v>
-      </c>
-      <c r="J9" s="53">
-        <v>0</v>
-      </c>
-      <c r="K9" s="60">
-        <v>7.2999999999999995E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="53">
+        <v>3222374.1032400001</v>
+      </c>
+      <c r="H9" s="53">
+        <v>61882.96289200001</v>
+      </c>
+      <c r="I9" s="61">
+        <v>6.29</v>
+      </c>
+      <c r="J9" s="56">
+        <v>0</v>
+      </c>
+      <c r="K9" s="43">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L9" s="53">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M9" s="28" t="e">
         <v>#N/A</v>
@@ -3359,37 +3170,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
-      <c r="D10" s="20">
-        <v>999999999999</v>
+      <c r="D10" s="55">
+        <v>0</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="51">
-        <v>0</v>
-      </c>
-      <c r="G10" s="58">
-        <v>5648000</v>
-      </c>
-      <c r="H10" s="58">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62">
-        <v>53.2</v>
-      </c>
-      <c r="J10" s="53">
-        <v>0</v>
-      </c>
-      <c r="K10" s="60">
-        <v>7.2999999999999995E-2</v>
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="53">
+        <v>3623777.1062800004</v>
+      </c>
+      <c r="H10" s="53">
+        <v>68684.513765600001</v>
+      </c>
+      <c r="I10" s="61">
+        <v>4.7</v>
+      </c>
+      <c r="J10" s="56">
+        <v>0</v>
+      </c>
+      <c r="K10" s="43">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L10" s="53">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M10" s="28" t="e">
         <v>#N/A</v>
@@ -3400,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -3409,19 +3220,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="51">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="53">
-        <v>3222374.1032400001</v>
+        <v>1672518.6</v>
       </c>
       <c r="H11" s="53">
-        <v>61882.96289200001</v>
+        <v>39025.4</v>
       </c>
       <c r="I11" s="61">
-        <v>6.29</v>
+        <v>3.2</v>
       </c>
       <c r="J11" s="56">
         <v>0</v>
@@ -3430,7 +3241,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L11" s="53">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M11" s="28" t="e">
         <v>#N/A</v>
@@ -3440,174 +3251,77 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>96</v>
+      <c r="B12" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
       </c>
-      <c r="D12" s="55">
-        <v>0</v>
+      <c r="D12" s="67">
+        <v>999999</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="51">
-        <v>0.65</v>
-      </c>
-      <c r="G12" s="53">
-        <v>3623777.1062800004</v>
-      </c>
-      <c r="H12" s="53">
-        <v>68684.513765600001</v>
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="52">
+        <v>735908.18400000012</v>
+      </c>
+      <c r="H12" s="52">
+        <v>16725.186000000002</v>
       </c>
       <c r="I12" s="61">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="J12" s="56">
         <v>0</v>
       </c>
-      <c r="K12" s="43">
-        <v>7.0999999999999994E-2</v>
+      <c r="K12" s="60">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="L12" s="53">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M12" s="28" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="55">
-        <v>0</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="53">
-        <v>1672518.6</v>
-      </c>
-      <c r="H13" s="53">
-        <v>39025.4</v>
-      </c>
-      <c r="I13" s="61">
-        <v>3.2</v>
-      </c>
-      <c r="J13" s="56">
-        <v>0</v>
-      </c>
-      <c r="K13" s="43">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L13" s="53">
-        <v>25</v>
-      </c>
-      <c r="M13" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="67">
-        <v>999999</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="51">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="52">
-        <v>735908.18400000012</v>
-      </c>
-      <c r="H14" s="52">
-        <v>16725.186000000002</v>
-      </c>
-      <c r="I14" s="61">
-        <v>2.6</v>
-      </c>
-      <c r="J14" s="56">
-        <v>0</v>
-      </c>
-      <c r="K14" s="60">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="L14" s="53">
-        <v>25</v>
-      </c>
-      <c r="M14" s="28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="A2:A14">
-    <cfRule type="expression" dxfId="17" priority="3">
+  <conditionalFormatting sqref="A2:A12 B2:B3 C2:C12 P2:XFD4">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C3 E2:F3 A4:F5 A6:C6 E6:F6">
-    <cfRule type="expression" dxfId="16" priority="16">
+  <conditionalFormatting sqref="A2:F3 A4:C4 E4:F4">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A15:F17 J15:XFD17 A18:XFD1048576">
-    <cfRule type="expression" dxfId="15" priority="20">
+  <conditionalFormatting sqref="A1:XFD1 A13:F15 J13:XFD15 A16:XFD1048576">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5">
-    <cfRule type="expression" dxfId="14" priority="15">
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B14">
-    <cfRule type="expression" dxfId="13" priority="1">
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
-    <cfRule type="expression" dxfId="12" priority="2">
+  <conditionalFormatting sqref="G2:I2">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:I4">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:XFD14">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD6">
-    <cfRule type="expression" dxfId="8" priority="17">
+  <conditionalFormatting sqref="N12:XFD12">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3634,10 +3348,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3653,51 +3367,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2" s="24">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="E2" s="24">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="24">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D3" s="64">
+        <v>0.43</v>
       </c>
       <c r="E3" s="24" t="e">
         <f>NA()</f>
@@ -3709,118 +3422,119 @@
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="24">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="24">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="e">
+      <c r="E5" s="24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="64">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="24" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="24">
+    <row r="7" spans="1:5">
+      <c r="A7" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="48">
+        <v>0.125</v>
+      </c>
+      <c r="E7" s="24">
+        <f>D7*E5</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="24">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="e">
+      <c r="E8" s="24" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="24">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="64">
-        <v>0.43</v>
-      </c>
-      <c r="E7" s="24" t="e">
+    <row r="9" spans="1:5">
+      <c r="A9" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="24" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1.2</v>
-      </c>
-    </row>
     <row r="10" spans="1:5">
       <c r="A10" s="63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="64">
-        <v>0.62</v>
+        <v>51</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
       </c>
       <c r="E10" s="24" t="e">
         <f>NA()</f>
@@ -3829,34 +3543,34 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="48">
-        <v>0.125</v>
-      </c>
-      <c r="E11" s="24">
-        <f>D11*E9</f>
-        <v>0.15</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="63" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="24">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="E12" s="24" t="e">
         <f>NA()</f>
@@ -3865,34 +3579,33 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" s="24">
-        <v>0.35</v>
-      </c>
-      <c r="E13" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="63" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="64">
+        <v>0.47</v>
       </c>
       <c r="E14" s="24" t="e">
         <f>NA()</f>
@@ -3901,34 +3614,34 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="63" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="E15" s="24">
+        <f>D15*E13</f>
+        <v>0.47851999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="63" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="24">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="E16" s="24" t="e">
         <f>NA()</f>
@@ -3937,33 +3650,34 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="63" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
-        <v>1.4</v>
+      <c r="E17" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="63" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="64">
-        <v>0.47</v>
+        <v>50</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1</v>
       </c>
       <c r="E18" s="24" t="e">
         <f>NA()</f>
@@ -3972,31 +3686,31 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="63" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="24">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="E19" s="24">
-        <f>D19*E17</f>
-        <v>0.47851999999999995</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="63" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -4008,49 +3722,49 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="63" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="24">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="E21" s="24" t="e">
-        <f>NA()</f>
+        <f>D21*E19</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="63" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="24">
-        <v>1</v>
+        <v>3.4180000000000002E-2</v>
       </c>
       <c r="E22" s="24" t="e">
-        <f>NA()</f>
+        <f>D22*E20</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="63" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
@@ -4062,34 +3776,34 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="24">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="E24" s="24" t="e">
-        <f>NA()</f>
+        <f>D24*E21</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25" s="24">
-        <v>0.38</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="E25" s="24" t="e">
         <f>D25*E23</f>
@@ -4098,34 +3812,33 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="63" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26" s="24">
-        <v>3.4180000000000002E-2</v>
-      </c>
-      <c r="E26" s="24" t="e">
-        <f>D26*E24</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="63" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" s="24">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="E27" s="24" t="e">
         <f>NA()</f>
@@ -4134,173 +3847,97 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="63" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="24">
-        <v>0.34</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E28" s="24" t="e">
-        <f>D28*E25</f>
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D29" s="24">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="E29" s="24" t="e">
-        <f>D29*E27</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1.2</v>
+        <v>51</v>
+      </c>
+      <c r="D30" s="64">
+        <v>0.62</v>
+      </c>
+      <c r="E30" s="24" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="24">
-        <v>0.49</v>
-      </c>
-      <c r="E31" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="24">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="E32" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="24">
-        <v>1</v>
-      </c>
-      <c r="E33" s="24">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="64">
-        <v>0.62</v>
-      </c>
-      <c r="E34" s="24" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="48">
+        <v>51</v>
+      </c>
+      <c r="D31" s="48">
         <v>0.125</v>
       </c>
-      <c r="E35" s="24">
-        <f>D35*E33</f>
+      <c r="E31" s="24">
+        <f>D31*E29</f>
         <v>0.15</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A34:C35 E34:E35">
-    <cfRule type="expression" dxfId="7" priority="5">
+  <conditionalFormatting sqref="A30:C31 E30:E31 A2:C4 E2:XFD19">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:E33">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="A29:E29">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1 A2:C8 E2:XFD23 A10:C23 A9 C9">
-    <cfRule type="expression" dxfId="5" priority="23">
+  <conditionalFormatting sqref="A1:XFD1 A5 C5 A6:C19">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:XFD29 F33:XFD35 A36:XFD1048576 A31:XFD32 A30 C30:XFD30">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="A20:XFD25 A26 C26:XFD26 A27:XFD28 F29:XFD31 A32:XFD1048576">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2 E2">
-    <cfRule type="expression" dxfId="3" priority="30">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6 D8:D9 D12:D17 D19:D23">
+  <conditionalFormatting sqref="D4:D5 D8:D13 D15:D19 D2">
     <cfRule type="expression" dxfId="2" priority="13">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -4312,7 +3949,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6 D9 D12:D14">
+  <conditionalFormatting sqref="D8:D10 D5 D2 E2:E7">
     <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4321,7 +3958,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D4">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4330,7 +3967,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D17">
+  <conditionalFormatting sqref="D13 D15">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4339,7 +3976,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+  <conditionalFormatting sqref="D15">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4348,7 +3985,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
+  <conditionalFormatting sqref="D16:D17">
     <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4357,7 +3994,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D23">
+  <conditionalFormatting sqref="D18:D19">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4366,7 +4003,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D29">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4389,7 +4026,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E32">
+  <conditionalFormatting sqref="D20:E28">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4405,7 +4042,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E33 E34:E35">
+  <conditionalFormatting sqref="D29:E29 E30:E31">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4419,7 +4056,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:E1048576">
+  <conditionalFormatting sqref="D32:E1048576">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4428,16 +4065,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E11">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E14">
+  <conditionalFormatting sqref="E8:E10">
     <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4446,7 +4074,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E16">
+  <conditionalFormatting sqref="E11:E12">
     <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4455,7 +4083,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E19">
+  <conditionalFormatting sqref="E13:E15">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4464,7 +4092,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
+  <conditionalFormatting sqref="E16:E17">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4473,7 +4101,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
+  <conditionalFormatting sqref="E18:E19">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4504,7 +4132,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{08A3674D-09CE-495B-91BD-FDAD0D78DB89}">
@@ -4519,7 +4147,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+          <xm:sqref>D29:E29 E30:E31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4556,49 +4184,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4665,61 +4293,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="P1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="T1" s="36" t="s">
         <v>74</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4727,22 +4355,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="40">
         <v>0</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="40">
         <v>0</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="41">
         <v>0.69</v>
@@ -4787,22 +4415,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="40">
         <v>0</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="40">
         <v>0</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="45">
         <v>0.9</v>
@@ -4848,22 +4476,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="40">
         <v>0</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="40">
         <v>0</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="48">
         <v>0.86</v>
@@ -4966,19 +4594,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5026,10 +4654,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
